--- a/ClosedXML_Tests/Resource/Other/InlineStrings/outputfile.xlsx
+++ b/ClosedXML_Tests/Resource/Other/InlineStrings/outputfile.xlsx
@@ -212,20 +212,13 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
+  <x:fonts count="1" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
       <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
